--- a/data_year/zb/城市概况/城市设施水平.xlsx
+++ b/data_year/zb/城市概况/城市设施水平.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,426 +468,301 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7.38813597739684</v>
+        <v>11.18</v>
       </c>
       <c r="C2" t="n">
-        <v>10.3361959198113</v>
+        <v>13.21</v>
       </c>
       <c r="D2" t="n">
-        <v>81.53</v>
+        <v>92.04000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>88.8490615987611</v>
+        <v>96.68000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>8.40537387282912</v>
+        <v>10.6870490108643</v>
       </c>
       <c r="G2" t="n">
-        <v>3.21046028633479</v>
+        <v>3.02332475271607</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.89222376391002</v>
+        <v>11.8</v>
       </c>
       <c r="C3" t="n">
-        <v>10.9166502893633</v>
+        <v>13.7528395081649</v>
       </c>
       <c r="D3" t="n">
-        <v>82.08</v>
+        <v>92.41</v>
       </c>
       <c r="E3" t="n">
-        <v>91.09</v>
+        <v>97.04000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>8.619999999999999</v>
+        <v>11.8121241503846</v>
       </c>
       <c r="G3" t="n">
-        <v>3.19891881960934</v>
+        <v>2.94504005028564</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.300000000000001</v>
+        <v>12.26</v>
       </c>
       <c r="C4" t="n">
-        <v>11.04</v>
+        <v>14.3853937275365</v>
       </c>
       <c r="D4" t="n">
-        <v>79.11</v>
+        <v>93.15000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>86.67</v>
+        <v>97.16</v>
       </c>
       <c r="F4" t="n">
-        <v>9.050000000000001</v>
+        <v>12.1475253032494</v>
       </c>
       <c r="G4" t="n">
-        <v>2.88</v>
+        <v>2.88776390533119</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>8.98</v>
+        <v>12.6357221247265</v>
       </c>
       <c r="C5" t="n">
-        <v>11.43</v>
+        <v>14.87</v>
       </c>
       <c r="D5" t="n">
-        <v>87.40000000000001</v>
+        <v>94.25</v>
       </c>
       <c r="E5" t="n">
-        <v>93.83</v>
+        <v>97.56</v>
       </c>
       <c r="F5" t="n">
-        <v>10.23</v>
+        <v>12.7770490607399</v>
       </c>
       <c r="G5" t="n">
-        <v>3.03913762809942</v>
+        <v>2.82886107298236</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.710000000000001</v>
+        <v>13.08</v>
       </c>
       <c r="C6" t="n">
-        <v>12.21</v>
+        <v>15.339276105573</v>
       </c>
       <c r="D6" t="n">
-        <v>89.55</v>
+        <v>94.56999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>94.73</v>
+        <v>97.64</v>
       </c>
       <c r="F6" t="n">
-        <v>11.13</v>
+        <v>12.9935204873154</v>
       </c>
       <c r="G6" t="n">
-        <v>3.11307347227052</v>
+        <v>2.7939698221615</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10.66</v>
+        <v>13.3499766083702</v>
       </c>
       <c r="C7" t="n">
-        <v>12.79</v>
+        <v>15.6018498953029</v>
       </c>
       <c r="D7" t="n">
-        <v>91.41</v>
+        <v>95.3</v>
       </c>
       <c r="E7" t="n">
-        <v>96.12</v>
+        <v>98.06999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>11.1185520928889</v>
+        <v>12.2448007972285</v>
       </c>
       <c r="G7" t="n">
-        <v>3.14604886521931</v>
+        <v>2.74664690987005</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.18</v>
+        <v>13.7</v>
       </c>
       <c r="C8" t="n">
-        <v>13.21</v>
+        <v>15.8</v>
       </c>
       <c r="D8" t="n">
-        <v>92.04000000000001</v>
+        <v>95.75</v>
       </c>
       <c r="E8" t="n">
-        <v>96.68000000000001</v>
+        <v>98.42</v>
       </c>
       <c r="F8" t="n">
-        <v>10.6870490108643</v>
+        <v>13.8415423159806</v>
       </c>
       <c r="G8" t="n">
-        <v>3.02332475271607</v>
+        <v>2.72079957781058</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.8</v>
+        <v>14.01</v>
       </c>
       <c r="C9" t="n">
-        <v>13.7528395081649</v>
+        <v>16.05</v>
       </c>
       <c r="D9" t="n">
-        <v>92.41</v>
+        <v>96.26000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>97.04000000000001</v>
+        <v>98.3</v>
       </c>
       <c r="F9" t="n">
-        <v>11.8121241503846</v>
+        <v>14.7259888575022</v>
       </c>
       <c r="G9" t="n">
-        <v>2.94504005028564</v>
+        <v>2.76932400403014</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12.26</v>
+        <v>14.11</v>
       </c>
       <c r="C10" t="n">
-        <v>14.3853937275365</v>
+        <v>16.7006736039375</v>
       </c>
       <c r="D10" t="n">
-        <v>93.15000000000001</v>
+        <v>96.6993876256751</v>
       </c>
       <c r="E10" t="n">
-        <v>97.16</v>
+        <v>98.35622340754129</v>
       </c>
       <c r="F10" t="n">
-        <v>12.1475253032494</v>
+        <v>13.0905862012069</v>
       </c>
       <c r="G10" t="n">
-        <v>2.88776390533119</v>
+        <v>2.8829138101319</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.6357221247265</v>
+        <v>14.3552587740349</v>
       </c>
       <c r="C11" t="n">
-        <v>14.87</v>
+        <v>17.355097146651</v>
       </c>
       <c r="D11" t="n">
-        <v>94.25</v>
+        <v>97.29443142881129</v>
       </c>
       <c r="E11" t="n">
-        <v>97.56</v>
+        <v>98.7836254855425</v>
       </c>
       <c r="F11" t="n">
-        <v>12.7770490607399</v>
+        <v>13.1295606651455</v>
       </c>
       <c r="G11" t="n">
-        <v>2.82886107298236</v>
+        <v>2.92710567083082</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>13.08</v>
+        <v>14.78</v>
       </c>
       <c r="C12" t="n">
-        <v>15.339276105573</v>
+        <v>18.0385556842692</v>
       </c>
       <c r="D12" t="n">
-        <v>94.56999999999999</v>
+        <v>97.8693616175955</v>
       </c>
       <c r="E12" t="n">
-        <v>97.64</v>
+        <v>98.9855617531541</v>
       </c>
       <c r="F12" t="n">
-        <v>12.9935204873154</v>
+        <v>12.8756038566472</v>
       </c>
       <c r="G12" t="n">
-        <v>2.7939698221615</v>
+        <v>3.07249851012113</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.3499766083702</v>
+        <v>14.87</v>
       </c>
       <c r="C13" t="n">
-        <v>15.6018498953029</v>
+        <v>18.84</v>
       </c>
       <c r="D13" t="n">
-        <v>95.3</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>98.06999999999999</v>
+        <v>99.38</v>
       </c>
       <c r="F13" t="n">
-        <v>12.2448007972285</v>
+        <v>11.247</v>
       </c>
       <c r="G13" t="n">
-        <v>2.74664690987005</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="C14" t="n">
-        <v>15.8</v>
-      </c>
-      <c r="D14" t="n">
-        <v>95.75</v>
-      </c>
-      <c r="E14" t="n">
-        <v>98.42</v>
-      </c>
-      <c r="F14" t="n">
-        <v>13.8415423159806</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2.72079957781058</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>14.01</v>
-      </c>
-      <c r="C15" t="n">
-        <v>16.05</v>
-      </c>
-      <c r="D15" t="n">
-        <v>96.26000000000001</v>
-      </c>
-      <c r="E15" t="n">
-        <v>98.3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>14.7259888575022</v>
-      </c>
-      <c r="G15" t="n">
-        <v>2.76932400403014</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>14.11</v>
-      </c>
-      <c r="C16" t="n">
-        <v>16.7006736039375</v>
-      </c>
-      <c r="D16" t="n">
-        <v>96.6993876256751</v>
-      </c>
-      <c r="E16" t="n">
-        <v>98.35622340754129</v>
-      </c>
-      <c r="F16" t="n">
-        <v>13.0905862012069</v>
-      </c>
-      <c r="G16" t="n">
-        <v>2.8829138101319</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>14.3552587740349</v>
-      </c>
-      <c r="C17" t="n">
-        <v>17.355097146651</v>
-      </c>
-      <c r="D17" t="n">
-        <v>97.29443142881129</v>
-      </c>
-      <c r="E17" t="n">
-        <v>98.7836254855425</v>
-      </c>
-      <c r="F17" t="n">
-        <v>13.1295606651455</v>
-      </c>
-      <c r="G17" t="n">
-        <v>2.92710567083082</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>14.78</v>
-      </c>
-      <c r="C18" t="n">
-        <v>18.0385556842692</v>
-      </c>
-      <c r="D18" t="n">
-        <v>97.8693616175955</v>
-      </c>
-      <c r="E18" t="n">
-        <v>98.9855617531541</v>
-      </c>
-      <c r="F18" t="n">
-        <v>12.8756038566472</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3.07249851012113</v>
+        <v>3.29107301607282</v>
       </c>
     </row>
   </sheetData>
